--- a/output/CodeSystem-social-history-activity-cs.xlsx
+++ b/output/CodeSystem-social-history-activity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-social-history-activity-cs.xlsx
+++ b/output/CodeSystem-social-history-activity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-social-history-activity-cs.xlsx
+++ b/output/CodeSystem-social-history-activity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-social-history-activity-cs.xlsx
+++ b/output/CodeSystem-social-history-activity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-social-history-activity-cs.xlsx
+++ b/output/CodeSystem-social-history-activity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-social-history-activity-cs.xlsx
+++ b/output/CodeSystem-social-history-activity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-social-history-activity-cs.xlsx
+++ b/output/CodeSystem-social-history-activity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-social-history-activity-cs.xlsx
+++ b/output/CodeSystem-social-history-activity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-social-history-activity-cs.xlsx
+++ b/output/CodeSystem-social-history-activity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
